--- a/biology/Zoologie/Gyrinus_japonicus/Gyrinus_japonicus.xlsx
+++ b/biology/Zoologie/Gyrinus_japonicus/Gyrinus_japonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gyrinus japonicus est une petite espèce aquatique d'insectes coléoptères de la famille des Gyrinidae, vivant à la surface des points d'eau claire que l'on trouve au Japon, en Corée du Sud et dans l'Extrême-Orient russe[1]. Elle a été définie par l'entomologiste britannique David Sharp (1840-1922).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyrinus japonicus est une petite espèce aquatique d'insectes coléoptères de la famille des Gyrinidae, vivant à la surface des points d'eau claire que l'on trouve au Japon, en Corée du Sud et dans l'Extrême-Orient russe. Elle a été définie par l'entomologiste britannique David Sharp (1840-1922).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit insecte mesure de 6 millimètres à 7,5 millimètres et vit à la surface des eaux claires et des canalisations des rizières. Il est actif de mars à septembre. Il est de couleur noire aux reflets métalliques brillants.
 Cette espèce est souvent élevée dans des aquariums au Japon.
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gyrinus japonicus japonicus, Sharp
 Gyrinus japonicus francki, Ochs</t>
